--- a/public/plantillainesyhenos.xlsx
+++ b/public/plantillainesyhenos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A9DABC2-0C0C-48BB-8B26-F7FF0DA9C780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{597F5C41-678E-433D-A1E6-6727705DC80F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1 camion" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="35">
   <si>
     <t>TRANSFORMACIONES SUBAGRI, S.L.</t>
   </si>
@@ -147,6 +147,9 @@
   </si>
   <si>
     <t>SENTIDO CONTRARIO, ESTOS PRODUCTOS GOZAN DE UN ORIGEN PREFERENCIAL ESPAÑOL</t>
+  </si>
+  <si>
+    <t>FIRMADO POR ANTONIO ATIENZA FLORES 52242828F</t>
   </si>
 </sst>
 </file>
@@ -902,8 +905,8 @@
   </sheetPr>
   <dimension ref="B1:P41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView showGridLines="0" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1682,6 +1685,9 @@
       <c r="G37" s="50"/>
     </row>
     <row r="38" spans="2:7" s="21" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="21" t="s">
+        <v>34</v>
+      </c>
       <c r="F38" s="51" t="s">
         <v>31</v>
       </c>
@@ -1722,7 +1728,7 @@
   <dimension ref="B1:P43"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28:G28"/>
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2519,6 +2525,9 @@
       <c r="G39" s="50"/>
     </row>
     <row r="40" spans="2:7" s="21" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="21" t="s">
+        <v>34</v>
+      </c>
       <c r="F40" s="51" t="s">
         <v>31</v>
       </c>
@@ -2558,8 +2567,8 @@
   </sheetPr>
   <dimension ref="B1:P46"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31:G31"/>
+    <sheetView showGridLines="0" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3381,6 +3390,9 @@
       <c r="G42" s="50"/>
     </row>
     <row r="43" spans="2:16" s="21" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="21" t="s">
+        <v>34</v>
+      </c>
       <c r="F43" s="51" t="s">
         <v>31</v>
       </c>
@@ -3422,8 +3434,8 @@
   </sheetPr>
   <dimension ref="B1:P47"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K44" sqref="K44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4256,6 +4268,9 @@
       <c r="G43" s="50"/>
     </row>
     <row r="44" spans="2:16" s="21" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="21" t="s">
+        <v>34</v>
+      </c>
       <c r="F44" s="51" t="s">
         <v>31</v>
       </c>
